--- a/data-raw/Berk Final Vn Vla Cello 11April.xlsx
+++ b/data-raw/Berk Final Vn Vla Cello 11April.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clareraybould/Desktop/Goldsmiths/1. Research Project/1. Stimuli/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/ClarePBETBattery2024/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275BD95-20D7-C543-8A05-A2B53BDC6F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB330782-F89F-7840-B887-97D871D1BF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="500" windowWidth="26700" windowHeight="15940" xr2:uid="{A6529F51-277F-4C4A-9018-7909D678D263}"/>
+    <workbookView xWindow="5660" yWindow="500" windowWidth="26700" windowHeight="15940" xr2:uid="{A6529F51-277F-4C4A-9018-7909D678D263}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="596">
   <si>
     <t>item_id</t>
   </si>
@@ -1821,13 +1821,16 @@
   </si>
   <si>
     <t>Berkowitz_ngram_65959</t>
+  </si>
+  <si>
+    <t>2 on E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1865,19 +1868,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1912,7 +1905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1924,11 +1917,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1947,9 +1939,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1987,7 +1979,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2093,7 +2085,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2235,7 +2227,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2245,13 +2237,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A69BA1-D41B-9C43-BBB7-1BE20A3A436D}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2261,10 +2253,10 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>553</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -2287,159 +2279,159 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F3" t="s">
-        <v>568</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="I3" t="s">
-        <v>568</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F4" t="s">
-        <v>568</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I4" t="s">
-        <v>568</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>568</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -2447,31 +2439,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>568</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -2479,703 +2471,703 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>568</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F9" t="s">
-        <v>568</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I9" t="s">
-        <v>568</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>557</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>558</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F11" t="s">
-        <v>568</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="I11" t="s">
-        <v>568</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>568</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>558</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F13" t="s">
-        <v>568</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>581</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I13" t="s">
-        <v>568</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>568</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F15" t="s">
-        <v>568</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I15" t="s">
-        <v>568</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I15" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>568</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>557</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>558</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>559</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F19" t="s">
-        <v>568</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I19" t="s">
-        <v>568</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I19" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F20" t="s">
-        <v>568</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="I20" t="s">
-        <v>568</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I20" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>557</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F25" t="s">
-        <v>568</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I25" t="s">
-        <v>568</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F26" t="s">
-        <v>568</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I26" t="s">
-        <v>568</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="I26" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
-        <v>568</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -3183,191 +3175,191 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F30" t="s">
-        <v>568</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I30" t="s">
-        <v>568</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="I30" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>557</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>561</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>560</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F33" t="s">
-        <v>568</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="I33" t="s">
-        <v>568</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="I33" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>557</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
-        <v>568</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -3375,31 +3367,31 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
-        <v>568</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -3407,118 +3399,118 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>557</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D38" t="s">
-        <v>560</v>
+      <c r="D38" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F38" t="s">
-        <v>567</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I38" t="s">
-        <v>567</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="I38" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F39" t="s">
-        <v>568</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I39" t="s">
-        <v>568</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="I39" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>562</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>566</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -3527,7 +3519,7 @@
       <c r="H40" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -3535,95 +3527,95 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F41" t="s">
-        <v>568</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I41" t="s">
-        <v>568</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I41" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C43" t="s">
-        <v>568</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>555</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -3631,95 +3623,95 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C44" t="s">
-        <v>565</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F44" t="s">
-        <v>570</v>
-      </c>
-      <c r="G44" t="s">
-        <v>554</v>
+      <c r="F44" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="I44" t="s">
-        <v>570</v>
-      </c>
-      <c r="J44" t="s">
-        <v>559</v>
+      <c r="I44" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="2" t="s">
         <v>557</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>558</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C46" t="s">
-        <v>568</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -3727,822 +3719,822 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>559</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="1" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>557</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>558</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="1" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>559</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="1" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>563</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>589</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>557</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F55" t="s">
-        <v>568</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I55" t="s">
-        <v>568</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="I55" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>557</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F57" t="s">
-        <v>568</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F57" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I57" t="s">
-        <v>568</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="I57" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F58" t="s">
-        <v>568</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I58" t="s">
-        <v>568</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I58" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="2" t="s">
         <v>560</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>557</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>559</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>582</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="1" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="1" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F64" t="s">
-        <v>568</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F64" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I64" t="s">
-        <v>568</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="I64" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>561</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>560</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="1" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="1" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>557</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="1" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="2" t="s">
         <v>557</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="2" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="7" t="s">
         <v>594</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>557</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>558</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C70" t="s">
-        <v>568</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C70" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="1" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C71" t="s">
-        <v>570</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="2" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>562</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>566</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -4551,7 +4543,7 @@
       <c r="H72" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J72" s="1" t="s">
@@ -4559,22 +4551,22 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>562</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>566</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -4583,7 +4575,7 @@
       <c r="H73" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J73" s="1" t="s">
@@ -4591,22 +4583,22 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>562</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>566</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -4615,7 +4607,7 @@
       <c r="H74" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J74" s="1" t="s">
@@ -4623,191 +4615,191 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>557</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>558</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F76" t="s">
-        <v>568</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="F76" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I76" t="s">
-        <v>568</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="I76" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C77" t="s">
-        <v>568</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="1" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>564</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="1" t="s">
         <v>587</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="1" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C80" t="s">
-        <v>568</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C80" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J80" s="1" t="s">
@@ -4815,22 +4807,22 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>563</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>576</v>
       </c>
       <c r="G81" s="2" t="s">
@@ -4839,62 +4831,62 @@
       <c r="H81" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>563</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>576</v>
       </c>
       <c r="G83" s="2" t="s">
@@ -4903,222 +4895,222 @@
       <c r="H83" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C84" t="s">
-        <v>568</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C84" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="1" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F85" t="s">
-        <v>568</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="F85" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I85" t="s">
-        <v>568</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="I85" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C86" t="s">
-        <v>570</v>
-      </c>
-      <c r="D86" t="s">
-        <v>561</v>
+      <c r="C86" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F86" t="s">
-        <v>571</v>
-      </c>
-      <c r="G86" t="s">
-        <v>560</v>
+      <c r="F86" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I86" t="s">
-        <v>571</v>
-      </c>
-      <c r="J86" t="s">
-        <v>560</v>
+      <c r="I86" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="2" t="s">
         <v>557</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="2" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F88" t="s">
-        <v>568</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="F88" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="I88" t="s">
-        <v>568</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="I88" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>552</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F89" t="s">
-        <v>568</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F89" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="I89" t="s">
-        <v>568</v>
-      </c>
-      <c r="J89" t="s">
+      <c r="I89" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>563</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>570</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -5127,234 +5119,234 @@
       <c r="H90" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>559</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="1" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>563</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="1" t="s">
         <v>588</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="1" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>559</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="1" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>559</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="1" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="1" t="s">
         <v>586</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>557</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="1" t="s">
         <v>558</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -5377,7 +5369,7 @@
       <c r="F98" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -5386,7 +5378,7 @@
       <c r="I98" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="1" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5400,7 +5392,7 @@
       <c r="C99" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -5418,7 +5410,7 @@
       <c r="I99" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="1" t="s">
         <v>556</v>
       </c>
     </row>
@@ -5429,28 +5421,28 @@
       <c r="B100" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="1" t="s">
         <v>557</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="1" t="s">
         <v>557</v>
       </c>
     </row>
@@ -5461,28 +5453,28 @@
       <c r="B101" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F101" t="s">
-        <v>568</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="F101" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="I101" t="s">
-        <v>568</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="I101" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>556</v>
       </c>
     </row>
@@ -5493,28 +5485,28 @@
       <c r="B102" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="1" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5525,25 +5517,25 @@
       <c r="B103" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C103" t="s">
-        <v>568</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C103" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>555</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J103" s="1" t="s">
@@ -5551,34 +5543,34 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F104" t="s">
-        <v>568</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="F104" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="I104" t="s">
-        <v>568</v>
-      </c>
-      <c r="J104" t="s">
+      <c r="I104" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J104" s="1" t="s">
         <v>556</v>
       </c>
     </row>
@@ -5589,28 +5581,28 @@
       <c r="B105" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="1" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5621,28 +5613,28 @@
       <c r="B106" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C106" t="s">
-        <v>568</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="C106" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="1" t="s">
         <v>580</v>
       </c>
     </row>
@@ -5653,60 +5645,60 @@
       <c r="B107" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F107" t="s">
-        <v>568</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="F107" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="I107" t="s">
-        <v>568</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="I107" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>559</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="1" t="s">
         <v>582</v>
       </c>
     </row>
@@ -5717,57 +5709,57 @@
       <c r="B109" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>554</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>563</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="1" t="s">
         <v>589</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="1" t="s">
         <v>570</v>
       </c>
       <c r="J110" s="1" t="s">
@@ -5775,34 +5767,34 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>560</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G111" s="2" t="s">
         <v>557</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J111" s="10" t="s">
+      <c r="J111" s="2" t="s">
         <v>557</v>
       </c>
     </row>
@@ -5825,7 +5817,7 @@
       <c r="F112" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -5834,7 +5826,7 @@
       <c r="I112" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" s="1" t="s">
         <v>556</v>
       </c>
     </row>
@@ -5880,7 +5872,7 @@
       <c r="C114" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -5889,7 +5881,7 @@
       <c r="F114" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -5898,7 +5890,7 @@
       <c r="I114" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" s="1" t="s">
         <v>559</v>
       </c>
     </row>
@@ -5930,12 +5922,12 @@
       <c r="I115" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -5953,7 +5945,7 @@
       <c r="F116" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -5976,7 +5968,7 @@
       <c r="C117" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -5994,7 +5986,7 @@
       <c r="I117" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="1" t="s">
         <v>556</v>
       </c>
     </row>
@@ -6017,7 +6009,7 @@
       <c r="F118" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H118" s="1" t="s">
@@ -6026,7 +6018,7 @@
       <c r="I118" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" s="1" t="s">
         <v>580</v>
       </c>
     </row>
@@ -6049,7 +6041,7 @@
       <c r="F119" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H119" s="1" t="s">
@@ -6058,7 +6050,7 @@
       <c r="I119" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="1" t="s">
         <v>580</v>
       </c>
     </row>
@@ -6081,7 +6073,7 @@
       <c r="F120" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H120" s="1" t="s">
@@ -6090,7 +6082,7 @@
       <c r="I120" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" s="1" t="s">
         <v>563</v>
       </c>
     </row>
@@ -6127,7 +6119,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -6154,12 +6146,12 @@
       <c r="I122" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J122" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -6168,7 +6160,7 @@
       <c r="C123" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -6177,7 +6169,7 @@
       <c r="F123" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -6186,19 +6178,19 @@
       <c r="I123" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" s="1" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>554</v>
@@ -6207,23 +6199,23 @@
         <v>396</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G124" t="s">
-        <v>584</v>
+        <v>575</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>535</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -6250,12 +6242,12 @@
       <c r="I125" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="1" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -6287,7 +6279,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -6296,7 +6288,7 @@
       <c r="C127" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -6305,7 +6297,7 @@
       <c r="F127" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -6314,12 +6306,12 @@
       <c r="I127" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -6328,7 +6320,7 @@
       <c r="C128" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -6337,7 +6329,7 @@
       <c r="F128" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -6346,12 +6338,12 @@
       <c r="I128" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -6369,7 +6361,7 @@
       <c r="F129" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G129" s="10" t="s">
+      <c r="G129" s="2" t="s">
         <v>557</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -6378,12 +6370,12 @@
       <c r="I129" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="J129" s="10" t="s">
+      <c r="J129" s="2" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -6401,7 +6393,7 @@
       <c r="F130" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -6415,7 +6407,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -6442,12 +6434,12 @@
       <c r="I131" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -6465,7 +6457,7 @@
       <c r="F132" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -6474,12 +6466,12 @@
       <c r="I132" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -6497,7 +6489,7 @@
       <c r="F133" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="1" t="s">
         <v>585</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -6506,12 +6498,12 @@
       <c r="I133" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -6543,7 +6535,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -6575,7 +6567,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -6607,7 +6599,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -6648,7 +6640,7 @@
       <c r="C138" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>551</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -6657,7 +6649,7 @@
       <c r="F138" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -6666,7 +6658,7 @@
       <c r="I138" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J138" s="1" t="s">
         <v>559</v>
       </c>
     </row>
